--- a/kin-docs/detail-design/90_DB設計.xlsx
+++ b/kin-docs/detail-design/90_DB設計.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kin-app\git\kin-work\kin-docs\detail-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1BE102-0E7E-4297-ACD3-B6CFEF93B009}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD8DB9E-47BE-49E8-A5D4-D562AFEC9C1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
@@ -902,11 +902,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1849,7 +1849,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="35" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1857,11 +1857,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8226E27-9270-4524-A864-822221B9E79E}">
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2738,6 +2738,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="43" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>